--- a/data/536/BPS/ROOM_historical.xlsx
+++ b/data/536/BPS/ROOM_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NW3"/>
+  <dimension ref="A1:NZ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2295,6 +2295,21 @@
       <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>2021-10</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
         </is>
       </c>
     </row>
@@ -3152,6 +3167,15 @@
       <c r="NW2" t="n">
         <v>50.61</v>
       </c>
+      <c r="NX2" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>58.79</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>52.26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4316,6 +4340,15 @@
       </c>
       <c r="NW3" t="n">
         <v>17.73</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="NY3" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="NZ3" t="n">
+        <v>20.71</v>
       </c>
     </row>
   </sheetData>
